--- a/config/game_data/config_data_example.xlsx
+++ b/config/game_data/config_data_example.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16400" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="config_player" sheetId="1" r:id="rId1"/>
+    <sheet name="config_user" sheetId="1" r:id="rId1"/>
     <sheet name="config_store" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -617,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
